--- a/results/Preliminaries-Newzealand.xlsx
+++ b/results/Preliminaries-Newzealand.xlsx
@@ -63,40 +63,40 @@
     <t>2020</t>
   </si>
   <si>
-    <t>A -</t>
-  </si>
-  <si>
-    <t>L -</t>
-  </si>
-  <si>
-    <t>N -</t>
-  </si>
-  <si>
-    <t>NZF</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>U -</t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UF </t>
-  </si>
-  <si>
-    <t>M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM </t>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)</t>
+  </si>
+  <si>
+    <t>U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)</t>
+  </si>
+  <si>
+    <t>PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)</t>
   </si>
   <si>
     <t>Key</t>
@@ -132,1609 +132,1609 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>A -+L -</t>
-  </si>
-  <si>
-    <t>A -+N -</t>
-  </si>
-  <si>
-    <t>A -+NZF</t>
-  </si>
-  <si>
-    <t>L -+N -</t>
-  </si>
-  <si>
-    <t>L -+NZF</t>
-  </si>
-  <si>
-    <t>N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+L -+N -</t>
-  </si>
-  <si>
-    <t>A -+L -+NZF</t>
-  </si>
-  <si>
-    <t>A -+N -+NZF</t>
-  </si>
-  <si>
-    <t>L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT</t>
-  </si>
-  <si>
-    <t>A -+U -</t>
-  </si>
-  <si>
-    <t>ACT+L -</t>
-  </si>
-  <si>
-    <t>ACT+N -</t>
-  </si>
-  <si>
-    <t>ACT+NZF</t>
-  </si>
-  <si>
-    <t>ACT+U -</t>
-  </si>
-  <si>
-    <t>L -+U -</t>
-  </si>
-  <si>
-    <t>N -+U -</t>
-  </si>
-  <si>
-    <t>NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -</t>
-  </si>
-  <si>
-    <t>A -+ACT+N -</t>
-  </si>
-  <si>
-    <t>A -+ACT+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+U -</t>
-  </si>
-  <si>
-    <t>A -+L -+U -</t>
-  </si>
-  <si>
-    <t>A -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+L -+N -</t>
-  </si>
-  <si>
-    <t>ACT+L -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+L -+U -</t>
-  </si>
-  <si>
-    <t>ACT+N -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+N -+U -</t>
-  </si>
-  <si>
-    <t>ACT+NZF+U -</t>
-  </si>
-  <si>
-    <t>L -+N -+U -</t>
-  </si>
-  <si>
-    <t>L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+N -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>ACT+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+G -</t>
-  </si>
-  <si>
-    <t>ACT+G -</t>
-  </si>
-  <si>
-    <t>G -+L -</t>
-  </si>
-  <si>
-    <t>G -+N -</t>
-  </si>
-  <si>
-    <t>G -+NZF</t>
-  </si>
-  <si>
-    <t>G -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -</t>
-  </si>
-  <si>
-    <t>A -+G -+N -</t>
-  </si>
-  <si>
-    <t>A -+G -+NZF</t>
-  </si>
-  <si>
-    <t>A -+G -+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -</t>
-  </si>
-  <si>
-    <t>ACT+G -+N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+G -+U -</t>
-  </si>
-  <si>
-    <t>G -+L -+N -</t>
-  </si>
-  <si>
-    <t>G -+L -+NZF</t>
-  </si>
-  <si>
-    <t>G -+L -+U -</t>
-  </si>
-  <si>
-    <t>G -+N -+NZF</t>
-  </si>
-  <si>
-    <t>G -+N -+U -</t>
-  </si>
-  <si>
-    <t>G -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+N -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+N -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+NZF</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+G -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+N -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+G -+N -+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+NZF+U -</t>
-  </si>
-  <si>
-    <t>G -+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>G -+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>G -+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>G -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+N -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>G -+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+N -+NZF</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+N -+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+G -+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t>A -+ACT+G -+L -+N -+NZF+U -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+NZF+PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+NZF+PC +UF </t>
-  </si>
-  <si>
-    <t>ACT+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+PP </t>
-  </si>
-  <si>
-    <t>G -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+PP </t>
-  </si>
-  <si>
-    <t>L -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+PP </t>
-  </si>
-  <si>
-    <t>M -+N -</t>
-  </si>
-  <si>
-    <t>M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+PP </t>
-  </si>
-  <si>
-    <t>ACT+L -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+PP </t>
-  </si>
-  <si>
-    <t>ACT+M -+N -</t>
-  </si>
-  <si>
-    <t>ACT+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+PP +UF </t>
-  </si>
-  <si>
-    <t>G -+L -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+PP </t>
-  </si>
-  <si>
-    <t>G -+M -+N -</t>
-  </si>
-  <si>
-    <t>G -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+PP +UF </t>
-  </si>
-  <si>
-    <t>L -+M -+N -</t>
-  </si>
-  <si>
-    <t>L -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+PP +UF </t>
-  </si>
-  <si>
-    <t>M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+PP </t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+N -</t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>G -+L -+M -+N -</t>
-  </si>
-  <si>
-    <t>G -+L -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+PP +UF </t>
-  </si>
-  <si>
-    <t>G -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>L -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>G -+L -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+NZF+PP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+N -+NZF+PP +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+MM </t>
-  </si>
-  <si>
-    <t>MM +N -</t>
-  </si>
-  <si>
-    <t>MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+MM </t>
-  </si>
-  <si>
-    <t>ACT+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+MM +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+MM </t>
-  </si>
-  <si>
-    <t>G -+MM +N -</t>
-  </si>
-  <si>
-    <t>G -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+MM +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+MM </t>
-  </si>
-  <si>
-    <t>L -+MM +N -</t>
-  </si>
-  <si>
-    <t>L -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+MM +UF </t>
-  </si>
-  <si>
-    <t>M -+MM +N -</t>
-  </si>
-  <si>
-    <t>M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+MM +UF </t>
-  </si>
-  <si>
-    <t>MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+MM </t>
-  </si>
-  <si>
-    <t>ACT+G -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+MM +UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+MM </t>
-  </si>
-  <si>
-    <t>ACT+L -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+L -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+MM </t>
-  </si>
-  <si>
-    <t>G -+L -+MM +N -</t>
-  </si>
-  <si>
-    <t>G -+L -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+MM +UF </t>
-  </si>
-  <si>
-    <t>G -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>G -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>G -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>L -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>L -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>L -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+MM </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+L -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>G -+L -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>G -+L -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>G -+L -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>G -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>L -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+MM +N -</t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+MM +NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+MM +UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+L -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>G -+L -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>ACT+G -+L -+M -+MM +N -+NZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+MM +N -+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+MM +NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+L -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G -+L -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT+G -+L -+M -+MM +N -+NZF+UF </t>
-  </si>
-  <si>
-    <t>('A -+L -+U -', 'ACT+G -+N -+NZF')</t>
-  </si>
-  <si>
-    <t>('ACT+G -+N -+NZF', 'A -+L -+U -')</t>
-  </si>
-  <si>
-    <t>('L -+UF ', 'ACT+G -+N -+NZF+PC ')</t>
-  </si>
-  <si>
-    <t>('ACT+G -+N -+NZF+PC ', 'L -+UF ')</t>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>A - New Zealand Alliance Party (New Zealand Alliance Party, A)+ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+U - United Party (United Party, U)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PP - Progressive Party (Progressive Party, PP)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+L - Labour Party (Labour Party, L)+M - Māori Party (Māori Party, M)+MM - Mana Maori (Mana Maori, MM)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+UF - United Future (United Future, UF)</t>
+  </si>
+  <si>
+    <t>('A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)', 'ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)')</t>
+  </si>
+  <si>
+    <t>('ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)', 'A - New Zealand Alliance Party (New Zealand Alliance Party, A)+L - Labour Party (Labour Party, L)+U - United Party (United Party, U)')</t>
+  </si>
+  <si>
+    <t>('L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)', 'ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)')</t>
+  </si>
+  <si>
+    <t>('ACT - Association of Consumers and Taxpayers (Association of Consumers and Taxpayers, ACT)+G - Green Party (Green Party, G)+N - National Party (National Party, N)+NZF - New Zealand First (New Zealand First, NZF)+PC - Progressive Party (Progressive Coalition, PC)', 'L - Labour Party (Labour Party, L)+UF - United Future (United Future, UF)')</t>
   </si>
 </sst>
 </file>
